--- a/biology/Médecine/Hôpital_Guillaume-et-René-Laennec/Hôpital_Guillaume-et-René-Laennec.xlsx
+++ b/biology/Médecine/Hôpital_Guillaume-et-René-Laennec/Hôpital_Guillaume-et-René-Laennec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Guillaume-et-Ren%C3%A9-Laennec</t>
+          <t>Hôpital_Guillaume-et-René-Laennec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital Guillaume-et-René-Laennec (appelé aussi hôpital Nord Laennec) est l'un des sept hôpitaux gérés par le centre hospitalier universitaire de Nantes. Il se situe sur le site hospitalo-universitaire Nord dans la commune de Saint-Herblain, où l'on trouve également le Centre de lutte contre le cancer René-Gauducheau.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Guillaume-et-Ren%C3%A9-Laennec</t>
+          <t>Hôpital_Guillaume-et-René-Laennec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conçu par l'architecte Philippe Joëssel[1],[2] et ouvert en 1984, il regroupe des services médicaux, de court séjours et de chirurgie. Il représente actuellement le deuxième site médico-chirurgical du CHU de Nantes[3].
-Son nom fait référence à René-Théophile-Hyacinthe Laennec, qui a commencé ses études médicales à Nantes, et à son oncle Guillaume François Laennec, qui fut médecin-chef de l'Hôtel-Dieu, ainsi que directeur de l'école de médecine de Nantes, et participa à la formation de son neveu[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conçu par l'architecte Philippe Joëssel, et ouvert en 1984, il regroupe des services médicaux, de court séjours et de chirurgie. Il représente actuellement le deuxième site médico-chirurgical du CHU de Nantes.
+Son nom fait référence à René-Théophile-Hyacinthe Laennec, qui a commencé ses études médicales à Nantes, et à son oncle Guillaume François Laennec, qui fut médecin-chef de l'Hôtel-Dieu, ainsi que directeur de l'école de médecine de Nantes, et participa à la formation de son neveu.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Guillaume-et-Ren%C3%A9-Laennec</t>
+          <t>Hôpital_Guillaume-et-René-Laennec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Projet de transfert</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre d'un regroupement de l'essentiel des services du Centre hospitalier universitaire sur un nouveau site à l'ouest de l'île de Nantes à l'horizon 2020-2025[5], les bâtiments de l'hôpital ne seraient plus affectés à des activités de soins, et devraient être cédés au prix du marché[6]. France domaines a estimé la valeur immobilière de ce domaine hospitalier de 49 hectares à 30 millions d’euros et devra trouver un acquéreur avant l’ouverture du futur nouveau CHU, prévue en 2026[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre d'un regroupement de l'essentiel des services du Centre hospitalier universitaire sur un nouveau site à l'ouest de l'île de Nantes à l'horizon 2020-2025, les bâtiments de l'hôpital ne seraient plus affectés à des activités de soins, et devraient être cédés au prix du marché. France domaines a estimé la valeur immobilière de ce domaine hospitalier de 49 hectares à 30 millions d’euros et devra trouver un acquéreur avant l’ouverture du futur nouveau CHU, prévue en 2026.
 </t>
         </is>
       </c>
